--- a/Casos_de_Prueba.xlsx
+++ b/Casos_de_Prueba.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="98">
   <si>
     <t>Id caso de prueba</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Ingresar en la pantalla de registro de usuario un username con caracteres especiales tales como #%&amp;(/)=?¿¡!</t>
   </si>
   <si>
-    <t>Ingresar en la pantalla de registro de un usuario un password con al menos cuatro caracteres(letras y/o números). Además, utilice caracteres especiales tales como #%&amp;(/)=?¿¡!</t>
-  </si>
-  <si>
     <t>El sistema debe mostrar un mensaje de error donde indique el formato correcto al ingresar username.</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
     <t>El sistema muestra el total de jugadores por género según rango de edad establecido.</t>
   </si>
   <si>
-    <t>El sistema muestra el total de jugadores por edad según rango de edad establecido.</t>
-  </si>
-  <si>
     <t>El sistema muestra el total de jugadores según rango de edad establecido.</t>
   </si>
   <si>
@@ -283,9 +277,6 @@
     <t>Consultar el total de jugadores por género en la pantalla de Estadísticas.</t>
   </si>
   <si>
-    <t>Consultar el total de jugadores por edad en la pantalla de Estadísticas.</t>
-  </si>
-  <si>
     <t>Consultar el total de jugadores sin ningún filtro en la pantalla de Estadísticas.</t>
   </si>
   <si>
@@ -320,6 +311,18 @@
   </si>
   <si>
     <t>El sistema debe mostrar un mensaje indicando que debe crear equipos primero para poder realizar la rifa de grupos.</t>
+  </si>
+  <si>
+    <t>Ingresar en la pantalla de registro de un usuario un password con al menos cuatro caracteres que incluya únicamente letras.</t>
+  </si>
+  <si>
+    <t>Consultar el total de jugadores por equipo en la pantalla de Estadísticas.</t>
+  </si>
+  <si>
+    <t>El sistema muestra el total de jugadores por equipo según rango de edad establecido.</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar un mensaje de error el cual indique que falta de seleccionar ya sea un país, provincia, cantón o distrito.</t>
   </si>
 </sst>
 </file>
@@ -741,7 +744,7 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,13 +784,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -798,24 +801,24 @@
         <v>17</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>5</v>
@@ -831,10 +834,10 @@
         <v>16</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>4</v>
@@ -851,24 +854,24 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="1">
         <f>+COUNTIF(D3:D53,F7)</f>
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="H7" s="3">
         <f>+G7/$G$10</f>
-        <v>1</v>
+        <v>0.86274509803921573</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -876,24 +879,24 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1">
         <f>+COUNTIF(D4:D54,F8)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" ref="H8:H9" si="0">+G8/$G$10</f>
-        <v>0</v>
+        <v>0.13725490196078433</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -901,13 +904,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
@@ -925,20 +928,20 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="1">
         <f>SUM(G7:G9)</f>
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="H10" s="4">
         <f>SUM(H7:H9)</f>
@@ -950,13 +953,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -964,13 +967,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -978,13 +981,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -992,13 +995,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1006,13 +1009,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1020,13 +1023,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1034,13 +1037,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1048,13 +1051,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1062,13 +1065,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1076,13 +1079,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E20" s="5"/>
     </row>
@@ -1091,13 +1094,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1105,13 +1108,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1119,13 +1122,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1133,13 +1136,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1147,13 +1150,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1161,13 +1164,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1175,13 +1178,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1189,13 +1192,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1203,13 +1206,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1217,13 +1220,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1231,13 +1234,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1245,13 +1248,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1259,13 +1262,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1273,13 +1276,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1287,13 +1290,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1301,13 +1304,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1315,13 +1318,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1329,13 +1332,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1343,13 +1346,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1357,13 +1360,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1371,13 +1374,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1385,13 +1388,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1399,13 +1402,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1413,13 +1416,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1427,13 +1430,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1441,13 +1444,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1455,13 +1458,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1469,10 +1472,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>7</v>
@@ -1483,10 +1486,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>7</v>
@@ -1497,10 +1500,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>7</v>
@@ -1511,10 +1514,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>7</v>
@@ -1525,10 +1528,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>7</v>
@@ -1539,10 +1542,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>7</v>
@@ -1553,10 +1556,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>7</v>
@@ -1567,10 +1570,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>7</v>
@@ -1581,13 +1584,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1595,13 +1598,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1609,13 +1612,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1623,10 +1626,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>12</v>

--- a/Casos_de_Prueba.xlsx
+++ b/Casos_de_Prueba.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="100">
   <si>
     <t>Id caso de prueba</t>
   </si>
@@ -323,6 +323,12 @@
   </si>
   <si>
     <t>El sistema debe mostrar un mensaje de error el cual indique que falta de seleccionar ya sea un país, provincia, cantón o distrito.</t>
+  </si>
+  <si>
+    <t>Manejo de campos de auditoría.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la base se muestra los campos de auditoría y el correspondiente uso de triggers. </t>
   </si>
 </sst>
 </file>
@@ -741,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,10 +1590,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>7</v>
@@ -1633,6 +1639,20 @@
       </c>
       <c r="D59" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
